--- a/1.4.project_85_excel.xlsx
+++ b/1.4.project_85_excel.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="44">
   <si>
     <t>BÁN HÀNG GỖ - TRE - NỨA NĂM 2008</t>
   </si>
@@ -68,9 +68,15 @@
     <t>CE01_1405</t>
   </si>
   <si>
+    <t>Tăm nhang</t>
+  </si>
+  <si>
     <t>CE01_1011</t>
   </si>
   <si>
+    <t>Giỏ tre đựng rau</t>
+  </si>
+  <si>
     <t>GM02_2206</t>
   </si>
   <si>
@@ -80,12 +86,21 @@
     <t>TN02_0908</t>
   </si>
   <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>TN01_2012</t>
   </si>
   <si>
     <t>GT01_1210</t>
   </si>
   <si>
+    <t>Cái</t>
+  </si>
+  <si>
     <t>GT01_1512</t>
   </si>
   <si>
@@ -113,19 +128,7 @@
     <t>Giỏ mây</t>
   </si>
   <si>
-    <t>Giỏ tre đựng rau</t>
-  </si>
-  <si>
-    <t>Cái</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
     <t>Tấm</t>
-  </si>
-  <si>
-    <t>Tăm nhang</t>
   </si>
   <si>
     <t>Cót ép</t>
@@ -1374,10 +1377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1432,132 +1435,328 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" ht="14" customHeight="1" spans="1:10">
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14" customHeight="1" spans="1:12">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="str">
+        <f>VLOOKUP(LEFT(B3,2),$A$14:$B$17,2,0)</f>
+        <v>Cót ép</v>
+      </c>
       <c r="D3" s="3">
         <v>400</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
+      <c r="E3" s="5" t="str">
+        <f>HLOOKUP(LEFT(B3,2),$E$13:$H$15,3,0)</f>
+        <v>Tấm</v>
+      </c>
+      <c r="F3" s="6">
+        <f>HLOOKUP(LEFT(B3,2),$E$13:$H$15,2,0)-IF(VALUE(MID(B3,4,1))=2,HLOOKUP(LEFT(B3,2),$E$13:$H$15,2,0)*10%,0)</f>
+        <v>10000</v>
+      </c>
+      <c r="G3" s="6">
+        <f>D3*F3-IF(AND(OR(VALUE(RIGHT(B3,2))=5,VALUE(RIGHT(B3,2))=12),D3&gt;200),D3*F3*10%,0)</f>
+        <v>3600000</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>IF(AND(OR(VALUE(RIGHT(B3,2))=5,VALUE(RIGHT(B3,2))=12),D3&gt;200),"giảm giá","-")</f>
+        <v>giảm giá</v>
+      </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="b">
+        <f>AND(VALUE(RIGHT(B3,2))&gt;=4,VALUE(RIGHT(B3,2))&lt;=10)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <f>VALUE(RIGHT(B3,2))&lt;=10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f>VLOOKUP(LEFT(B4,2),$A$14:$B$17,2,0)</f>
+        <v>Cót ép</v>
+      </c>
       <c r="D4" s="3">
         <v>300</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
+      <c r="E4" s="5" t="str">
+        <f>HLOOKUP(LEFT(B4,2),$E$13:$H$15,3,0)</f>
+        <v>Tấm</v>
+      </c>
+      <c r="F4" s="6">
+        <f>HLOOKUP(LEFT(B4,2),$E$13:$H$15,2,0)-IF(VALUE(MID(B4,4,1))=2,HLOOKUP(LEFT(B4,2),$E$13:$H$15,2,0)*10%,0)</f>
+        <v>10000</v>
+      </c>
+      <c r="G4" s="6">
+        <f>D4*F4-IF(AND(OR(VALUE(RIGHT(B4,2))=5,VALUE(RIGHT(B4,2))=12),D4&gt;200),D4*F4*10%,0)</f>
+        <v>3000000</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f t="shared" ref="H4:H10" si="0">IF(AND(OR(VALUE(RIGHT(B4,2))=5,VALUE(RIGHT(B4,2))=12),D4&gt;200),"giảm giá","-")</f>
+        <v>-</v>
+      </c>
       <c r="I4" s="16"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="b">
+        <f>AND(VALUE(RIGHT(B3,2))&gt;=4,VALUE(RIGHT(B3,2))&lt;=10)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <f>VALUE(RIGHT(B3,2))&lt;=10</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>VLOOKUP(LEFT(B5,2),$A$14:$B$17,2,0)</f>
+        <v>Giỏ mây</v>
+      </c>
       <c r="D5" s="3">
         <v>200</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="5" t="str">
+        <f>HLOOKUP(LEFT(B5,2),$E$13:$H$15,3,0)</f>
+        <v>Cái</v>
+      </c>
+      <c r="F5" s="6">
+        <f>HLOOKUP(LEFT(B5,2),$E$13:$H$15,2,0)-IF(VALUE(MID(B5,4,1))=2,HLOOKUP(LEFT(B5,2),$E$13:$H$15,2,0)*10%,0)</f>
+        <v>18000</v>
+      </c>
+      <c r="G5" s="6">
+        <f>D5*F5-IF(AND(OR(VALUE(RIGHT(B5,2))=5,VALUE(RIGHT(B5,2))=12),D5&gt;200),D5*F5*10%,0)</f>
+        <v>3600000</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
       <c r="I5" s="16"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:17">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f>VLOOKUP(LEFT(B6,2),$A$14:$B$17,2,0)</f>
+        <v>Giỏ mây</v>
+      </c>
       <c r="D6" s="3">
         <v>150</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="E6" s="5" t="str">
+        <f>HLOOKUP(LEFT(B6,2),$E$13:$H$15,3,0)</f>
+        <v>Cái</v>
+      </c>
+      <c r="F6" s="6">
+        <f>HLOOKUP(LEFT(B6,2),$E$13:$H$15,2,0)-IF(VALUE(MID(B6,4,1))=2,HLOOKUP(LEFT(B6,2),$E$13:$H$15,2,0)*10%,0)</f>
+        <v>18000</v>
+      </c>
+      <c r="G6" s="6">
+        <f>D6*F6-IF(AND(OR(VALUE(RIGHT(B6,2))=5,VALUE(RIGHT(B6,2))=12),D6&gt;200),D6*F6*10%,0)</f>
+        <v>2700000</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f>VLOOKUP(LEFT(B7,2),$A$14:$B$17,2,0)</f>
+        <v>Tăm nhang</v>
+      </c>
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="E7" s="5" t="str">
+        <f>HLOOKUP(LEFT(B7,2),$E$13:$H$15,3,0)</f>
+        <v>Kg</v>
+      </c>
+      <c r="F7" s="6">
+        <f>HLOOKUP(LEFT(B7,2),$E$13:$H$15,2,0)-IF(VALUE(MID(B7,4,1))=2,HLOOKUP(LEFT(B7,2),$E$13:$H$15,2,0)*10%,0)</f>
+        <v>10800</v>
+      </c>
+      <c r="G7" s="6">
+        <f>D7*F7-IF(AND(OR(VALUE(RIGHT(B7,2))=5,VALUE(RIGHT(B7,2))=12),D7&gt;200),D7*F7*10%,0)</f>
+        <v>5400000</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="3">
+        <v>7</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3">
+        <v>500</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="6">
+        <v>10800</v>
+      </c>
+      <c r="P7" s="6">
+        <v>5400000</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>VLOOKUP(LEFT(B8,2),$A$14:$B$17,2,0)</f>
+        <v>Tăm nhang</v>
+      </c>
       <c r="D8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="7"/>
+      <c r="E8" s="5" t="str">
+        <f>HLOOKUP(LEFT(B8,2),$E$13:$H$15,3,0)</f>
+        <v>Kg</v>
+      </c>
+      <c r="F8" s="6">
+        <f>HLOOKUP(LEFT(B8,2),$E$13:$H$15,2,0)-IF(VALUE(MID(B8,4,1))=2,HLOOKUP(LEFT(B8,2),$E$13:$H$15,2,0)*10%,0)</f>
+        <v>12000</v>
+      </c>
+      <c r="G8" s="6">
+        <f>D8*F8-IF(AND(OR(VALUE(RIGHT(B8,2))=5,VALUE(RIGHT(B8,2))=12),D8&gt;200),D8*F8*10%,0)</f>
+        <v>3240000</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>giảm giá</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="6">
+        <v>22000</v>
+      </c>
+      <c r="P8" s="6">
+        <v>2200000</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>VLOOKUP(LEFT(B9,2),$A$14:$B$17,2,0)</f>
+        <v>Giỏ tre đựng rau</v>
+      </c>
       <c r="D9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="5" t="str">
+        <f>HLOOKUP(LEFT(B9,2),$E$13:$H$15,3,0)</f>
+        <v>Cái</v>
+      </c>
+      <c r="F9" s="6">
+        <f>HLOOKUP(LEFT(B9,2),$E$13:$H$15,2,0)-IF(VALUE(MID(B9,4,1))=2,HLOOKUP(LEFT(B9,2),$E$13:$H$15,2,0)*10%,0)</f>
+        <v>22000</v>
+      </c>
+      <c r="G9" s="6">
+        <f>D9*F9-IF(AND(OR(VALUE(RIGHT(B9,2))=5,VALUE(RIGHT(B9,2))=12),D9&gt;200),D9*F9*10%,0)</f>
+        <v>2200000</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="I9" s="16"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
@@ -1565,17 +1764,32 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>VLOOKUP(LEFT(B10,2),$A$14:$B$17,2,0)</f>
+        <v>Giỏ tre đựng rau</v>
+      </c>
       <c r="D10" s="3">
         <v>80</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="17"/>
+      <c r="E10" s="5" t="str">
+        <f>HLOOKUP(LEFT(B10,2),$E$13:$H$15,3,0)</f>
+        <v>Cái</v>
+      </c>
+      <c r="F10" s="6">
+        <f>HLOOKUP(LEFT(B10,2),$E$13:$H$15,2,0)-IF(VALUE(MID(B10,4,1))=2,HLOOKUP(LEFT(B10,2),$E$13:$H$15,2,0)*10%,0)</f>
+        <v>22000</v>
+      </c>
+      <c r="G10" s="6">
+        <f>D10*F10-IF(AND(OR(VALUE(RIGHT(B10,2))=5,VALUE(RIGHT(B10,2))=12),D10&gt;200),D10*F10*10%,0)</f>
+        <v>1760000</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="I10" s="16"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
@@ -1592,12 +1806,12 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1608,36 +1822,36 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="10" t="s">
@@ -1660,36 +1874,36 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1702,10 +1916,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="12"/>
@@ -1730,7 +1944,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1744,7 +1958,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1758,7 +1972,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1772,7 +1986,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1786,7 +2000,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1800,7 +2014,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1814,7 +2028,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1828,7 +2042,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1842,7 +2056,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1856,7 +2070,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1870,7 +2084,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1884,7 +2098,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1898,6 +2112,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:I10">
+    <sortCondition ref="I3:I10"/>
     <sortCondition ref="D3:D10" descending="1"/>
   </sortState>
   <mergeCells count="1">
@@ -2005,7 +2220,7 @@
       </c>
       <c r="I3" s="16"/>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K3" s="3" t="b">
         <f>VALUE(RIGHT(B3,2))&gt;=4</f>
@@ -2021,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2048,7 +2263,7 @@
       </c>
       <c r="I4" s="16"/>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K4" s="3" t="b">
         <f>VALUE(RIGHT(B3,2))&gt;=4</f>
@@ -2064,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2097,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2153,7 +2368,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2183,16 +2398,16 @@
         <v>7</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M7" s="3">
         <v>500</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="O7" s="6">
         <v>10800</v>
@@ -2207,7 +2422,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2237,16 +2452,16 @@
         <v>5</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O8" s="6">
         <v>22000</v>
@@ -2261,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2294,7 +2509,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2336,12 +2551,12 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2352,36 +2567,36 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="10" t="s">
@@ -2404,36 +2619,36 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2446,10 +2661,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="12"/>
@@ -2474,7 +2689,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2488,7 +2703,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2502,7 +2717,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2516,7 +2731,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2530,7 +2745,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2544,7 +2759,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2558,7 +2773,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2572,7 +2787,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2586,7 +2801,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2600,7 +2815,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2614,7 +2829,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2628,7 +2843,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
